--- a/biology/Zoologie/Alestidae/Alestidae.xlsx
+++ b/biology/Zoologie/Alestidae/Alestidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Alestidae (anciennement orthographié Alestiidae[2]), communément appelés Tétras africains ou Alestidés, sont une famille de poissons d'eau douce de l'ordre des Characiformes. Toutes ces espèces sont endémiques d'Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Alestidae (anciennement orthographié Alestiidae), communément appelés Tétras africains ou Alestidés, sont une famille de poissons d'eau douce de l'ordre des Characiformes. Toutes ces espèces sont endémiques d'Afrique.
 Les espèces les plus connues de cette famille sont le Tétra du Congo (du genre Phenacogrammus) et le Poisson tigre goliath (du genre Hydrocynus).
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le WoRMS, l'auteur de cette famille est Theodore Dru Alison Cockerell en 1910. Toutefois, dans sa publication originale, il n'est fait mention ni du terme Alestidae ni celui des Alestiidae. En revanche il considère que le groupe initial nommé « Alestes » devrait être scindé en trois tribus : Sarcodacini, Alestini, Hydrocyonini[3]. Avec pour genres types respectivement Sarcodace, Alestes et Hydrocyon[3].
-Pour d'autres sources, l'auteur serait Tyson R. Roberts (d) en 1969[4], voire Henry Weed Fowler en 1958[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le WoRMS, l'auteur de cette famille est Theodore Dru Alison Cockerell en 1910. Toutefois, dans sa publication originale, il n'est fait mention ni du terme Alestidae ni celui des Alestiidae. En revanche il considère que le groupe initial nommé « Alestes » devrait être scindé en trois tribus : Sarcodacini, Alestini, Hydrocyonini. Avec pour genres types respectivement Sarcodace, Alestes et Hydrocyon.
+Pour d'autres sources, l'auteur serait Tyson R. Roberts (d) en 1969, voire Henry Weed Fowler en 1958.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (27 juillet 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 juillet 2020) :
 genre Alestes Müller &amp; Troschel, 1844
 genre Alestopetersius Hoedeman, 1951
 genre Arnoldichthys Myers, 1926
@@ -595,7 +611,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) T. D. A. Cockerell, « The scales of the African characinid fishes, with two plates », Smithsonian Miscellaneous Collections, vol. 56, no 1929,‎ 1910, p. 1-10 (ISSN 0096-8749, OCLC 1376204, lire en ligne)</t>
         </is>
@@ -625,7 +643,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des Tétras</t>
         </is>
